--- a/index.xlsx
+++ b/index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>VO TAN VUONG'S SCHEDULE</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>[Research] From 10/3/2015 to 25/3/2015 Open MPI and MPICH</t>
+  </si>
+  <si>
+    <t>[Research] From .. to .. Free energy from radio waves charging mobile phones (Tran Thien Dong)</t>
   </si>
 </sst>
 </file>
@@ -744,7 +747,7 @@
     <row r="11" spans="1:8" ht="16.5">
       <c r="B11" s="6" t="str">
         <f ca="1">"updated at: "&amp;TEXT(NOW(),"dd/mm/yy")</f>
-        <v>updated at: 25/03/15</v>
+        <v>updated at: 28/03/15</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -767,7 +770,7 @@
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,6 +811,11 @@
     <row r="7" spans="1:1" ht="16.5">
       <c r="A7" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16.5">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.5">

--- a/index.xlsx
+++ b/index.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="sch" sheetId="1" r:id="rId1"/>
-    <sheet name="nte" sheetId="2" r:id="rId2"/>
-    <sheet name="cnt" sheetId="3" r:id="rId3"/>
+    <sheet name="schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="notes" sheetId="2" r:id="rId2"/>
+    <sheet name="contacts" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>VO TAN VUONG'S SCHEDULE</t>
   </si>
@@ -84,28 +84,31 @@
     <t>study to 22h30'</t>
   </si>
   <si>
-    <t>[Research] From .. to .. Build a computer with ARM processor</t>
-  </si>
-  <si>
-    <t>[Research] From .. to .. Navigator for bike/bicycle (MSc. Nguyen Quoc Dinh)</t>
-  </si>
-  <si>
-    <t>[Research] From .. to .. Build a white and black space for the blind</t>
-  </si>
-  <si>
-    <t>[Research] From .. to .. Build a supercomputer on the cheap</t>
-  </si>
-  <si>
-    <t>[Research] From .. to .. Modifying linux kernel for ARM processor</t>
-  </si>
-  <si>
-    <t>[Research] From 25/3/2015 to .. Electric management system (MSc. Nguyen Hoa, Chau Minh Tuan, Tran Thien Dong)</t>
-  </si>
-  <si>
-    <t>[Research] From 10/3/2015 to 25/3/2015 Open MPI and MPICH</t>
-  </si>
-  <si>
-    <t>[Research] From .. to .. Free energy from radio waves charging mobile phones (Tran Thien Dong)</t>
+    <t>From 10/3/2015 to 25/3/2015 Open MPI and MPICH</t>
+  </si>
+  <si>
+    <t>From 25/3/2015 to .. Electric management system (MSc. Nguyen Hoa, Chau Minh Tuan, Tran Thien Dong)</t>
+  </si>
+  <si>
+    <t>From .. to .. Build a supercomputer on the cheap</t>
+  </si>
+  <si>
+    <t>From .. to .. Navigator for bike/bicycle (MSc. Nguyen Quoc Dinh)</t>
+  </si>
+  <si>
+    <t>From .. to .. Modifying linux kernel for ARM processor</t>
+  </si>
+  <si>
+    <t>From .. to .. Build a computer with ARM processor</t>
+  </si>
+  <si>
+    <t>From .. to .. Build a white and black space for the blind</t>
+  </si>
+  <si>
+    <t>From .. to .. Free energy from radio waves charging mobile phones (Tran Thien Dong)</t>
+  </si>
+  <si>
+    <t>From .. to .. Internet media box for TV</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -769,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -780,22 +783,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.5">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.5">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.5">
@@ -805,12 +808,12 @@
     </row>
     <row r="6" spans="1:1" ht="16.5">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16.5">
@@ -819,7 +822,9 @@
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.5">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:1" ht="16.5">
       <c r="A10" s="2"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>VO TAN VUONG'S SCHEDULE</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>From .. to .. Internet media box for TV</t>
+  </si>
+  <si>
+    <t>Do not listen to music and watch video while using my computer, i just listen to music at my practice time (16h-17h)</t>
   </si>
 </sst>
 </file>
@@ -535,16 +538,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
@@ -748,11 +751,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5">
-      <c r="B11" s="6" t="str">
+      <c r="A11" s="6" t="str">
         <f ca="1">"updated at: "&amp;TEXT(NOW(),"dd/mm/yy")</f>
-        <v>updated at: 28/03/15</v>
+        <v>updated at: 04/04/15</v>
       </c>
       <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5">
+      <c r="A12" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -912,7 +920,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -111,7 +111,7 @@
     <t>From .. to .. Internet media box for TV</t>
   </si>
   <si>
-    <t>Do not listen to music and watch video while using my computer, i just listen to music at my practice time (16h-17h)</t>
+    <t>Do not listen to music and watch video while using my computer, i just listen to music at my practice time and my relaxing time</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="6" t="str">
         <f ca="1">"updated at: "&amp;TEXT(NOW(),"dd/mm/yy")</f>
-        <v>updated at: 04/04/15</v>
+        <v>updated at: 06/04/15</v>
       </c>
       <c r="C11" s="6"/>
     </row>

--- a/index.xlsx
+++ b/index.xlsx
@@ -84,12 +84,6 @@
     <t>study to 22h30'</t>
   </si>
   <si>
-    <t>From 10/3/2015 to 25/3/2015 Open MPI and MPICH</t>
-  </si>
-  <si>
-    <t>From 25/3/2015 to .. Electric management system (MSc. Nguyen Hoa, Chau Minh Tuan, Tran Thien Dong)</t>
-  </si>
-  <si>
     <t>From .. to .. Build a supercomputer on the cheap</t>
   </si>
   <si>
@@ -112,6 +106,12 @@
   </si>
   <si>
     <t>Do not listen to music and watch video while using my computer, i just listen to music at my practice time and my relaxing time</t>
+  </si>
+  <si>
+    <t>From 10/03/2015 to 25/03/2015 Open MPI and MPICH</t>
+  </si>
+  <si>
+    <t>From 25/03/2015 to .. Electric management system (MSc. Nguyen Hoa, Chau Minh Tuan, Tran Thien Dong)</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -752,14 +752,14 @@
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="6" t="str">
-        <f ca="1">"updated at: "&amp;TEXT(NOW(),"dd/mm/yy")</f>
-        <v>updated at: 06/04/15</v>
+        <f ca="1">"updated at: "&amp;TEXT(NOW(),"dd/mm/yyyy")</f>
+        <v>updated at: 06/04/2015</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +781,7 @@
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -791,47 +791,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.5">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.5">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.5">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16.5">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.5">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5">

--- a/index.xlsx
+++ b/index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>VO TAN VUONG'S SCHEDULE</t>
   </si>
@@ -84,34 +84,40 @@
     <t>study to 22h30'</t>
   </si>
   <si>
-    <t>From .. to .. Build a supercomputer on the cheap</t>
-  </si>
-  <si>
-    <t>From .. to .. Navigator for bike/bicycle (MSc. Nguyen Quoc Dinh)</t>
-  </si>
-  <si>
-    <t>From .. to .. Modifying linux kernel for ARM processor</t>
-  </si>
-  <si>
-    <t>From .. to .. Build a computer with ARM processor</t>
-  </si>
-  <si>
-    <t>From .. to .. Build a white and black space for the blind</t>
-  </si>
-  <si>
-    <t>From .. to .. Free energy from radio waves charging mobile phones (Tran Thien Dong)</t>
-  </si>
-  <si>
-    <t>From .. to .. Internet media box for TV</t>
-  </si>
-  <si>
-    <t>Do not listen to music and watch video while using my computer, i just listen to music at my practice time and my relaxing time</t>
-  </si>
-  <si>
-    <t>From 10/03/2015 to 25/03/2015 Open MPI and MPICH</t>
-  </si>
-  <si>
-    <t>From 25/03/2015 to .. Electric management system (MSc. Nguyen Hoa, Chau Minh Tuan, Tran Thien Dong)</t>
+    <t>Do not listen to music and watch entertainment videos while using my computer.</t>
+  </si>
+  <si>
+    <t>To punish me when i do not follow my schedule is not listen to music a day.</t>
+  </si>
+  <si>
+    <t>From 10/03/2015 to 25/03/2015 Open MPI and MPICH.</t>
+  </si>
+  <si>
+    <t>From 25/03/2015 to .. Electric management system (MSc. Nguyen Hoa, Chau Minh Tuan, Tran Thien Dong).</t>
+  </si>
+  <si>
+    <t>From .. to .. Build a supercomputer on the cheap.</t>
+  </si>
+  <si>
+    <t>From .. to .. Navigator for bike/bicycle (MSc. Nguyen Quoc Dinh).</t>
+  </si>
+  <si>
+    <t>From .. to .. Modifying linux kernel for ARM processor.</t>
+  </si>
+  <si>
+    <t>From .. to .. Build a computer with ARM processor.</t>
+  </si>
+  <si>
+    <t>From .. to .. Build a white and black space for the blind.</t>
+  </si>
+  <si>
+    <t>From .. to .. Free energy from radio waves charging mobile phones (Tran Thien Dong).</t>
+  </si>
+  <si>
+    <t>From .. to .. Internet media box for TV.</t>
+  </si>
+  <si>
+    <t>I just listen to music at my practice time and my relaxing time so i just watch movie before i go to sleep.</t>
   </si>
 </sst>
 </file>
@@ -217,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -228,6 +234,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -557,16 +566,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="16.5">
       <c r="A2" s="5"/>
@@ -614,12 +623,12 @@
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -640,14 +649,14 @@
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -656,27 +665,27 @@
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
@@ -685,16 +694,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
@@ -703,7 +712,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -727,7 +736,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
@@ -752,14 +761,24 @@
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="6" t="str">
-        <f ca="1">"updated at: "&amp;TEXT(NOW(),"dd/mm/yyyy")</f>
-        <v>updated at: 06/04/2015</v>
+        <f ca="1">"Updated at: "&amp;TEXT(NOW(),"dd/mm/yyyy")</f>
+        <v>Updated at: 08/04/2015</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
-      <c r="A12" s="6" t="s">
-        <v>29</v>
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5">
+      <c r="A13" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5">
+      <c r="A14" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +800,7 @@
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -791,47 +810,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.5">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.5">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.5">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16.5">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.5">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5">

--- a/index.xlsx
+++ b/index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>VO TAN VUONG'S SCHEDULE</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Do not listen to music and watch entertainment videos while using my computer.</t>
-  </si>
-  <si>
-    <t>To punish me when i do not follow my schedule is not listen to music a day.</t>
   </si>
   <si>
     <t>From 10/03/2015 to 25/03/2015 Open MPI and MPICH.</t>
@@ -550,7 +547,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -773,13 +770,11 @@
     </row>
     <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5">
-      <c r="A14" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="A14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -810,47 +805,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.5">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.5">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.5">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16.5">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.5">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5">

--- a/index.xlsx
+++ b/index.xlsx
@@ -220,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -235,9 +235,6 @@
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -249,6 +246,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,12 +553,12 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -563,16 +569,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="16.5">
       <c r="A2" s="5"/>
@@ -620,12 +626,12 @@
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -646,14 +652,14 @@
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
-      <c r="A5" s="8"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -662,27 +668,27 @@
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
@@ -691,16 +697,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
@@ -709,7 +715,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="8"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -733,7 +739,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="8"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>

--- a/index.xlsx
+++ b/index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>VO TAN VUONG'S SCHEDULE</t>
   </si>
@@ -84,9 +84,6 @@
     <t>study to 22h30'</t>
   </si>
   <si>
-    <t>Do not listen to music and watch entertainment videos while using my computer.</t>
-  </si>
-  <si>
     <t>From 10/03/2015 to 25/03/2015 Open MPI and MPICH.</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
   </si>
   <si>
     <t>From .. to .. Internet media box for TV.</t>
-  </si>
-  <si>
-    <t>I just listen to music at my practice time and my relaxing time so i just watch movie before i go to sleep.</t>
   </si>
 </sst>
 </file>
@@ -235,6 +229,15 @@
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -246,15 +249,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,7 +547,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -569,16 +563,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="16.5">
       <c r="A2" s="5"/>
@@ -626,12 +620,12 @@
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -652,14 +646,14 @@
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
-      <c r="A5" s="13"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -668,27 +662,27 @@
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
-      <c r="A6" s="13"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
@@ -697,16 +691,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
@@ -715,7 +709,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="13"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -739,7 +733,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="14"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
@@ -765,19 +759,15 @@
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="6" t="str">
         <f ca="1">"Updated at: "&amp;TEXT(NOW(),"dd/mm/yyyy")</f>
-        <v>Updated at: 08/04/2015</v>
+        <v>Updated at: 09/04/2015</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
-      <c r="A12" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="16.5">
-      <c r="A13" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="A13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="7"/>
@@ -811,47 +801,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.5">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.5">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.5">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16.5">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.5">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5">
